--- a/Professora Célia/Dicionario de dados.xlsx
+++ b/Professora Célia/Dicionario de dados.xlsx
@@ -580,12 +580,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,32 +614,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -906,220 +906,228 @@
   <dimension ref="A3:AF125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:P7"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19" t="s">
+      <c r="K12" s="15"/>
+      <c r="L12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -1127,86 +1135,86 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="5">
         <v>5</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="20" t="s">
+      <c r="K13" s="15"/>
+      <c r="L13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="5">
         <v>1</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="20" t="s">
+      <c r="K14" s="15"/>
+      <c r="L14" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="5">
         <v>50</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="20" t="s">
+      <c r="K15" s="15"/>
+      <c r="L15" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
@@ -1306,23 +1314,23 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="17"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1340,365 +1348,365 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="28"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="28"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="12" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="28"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="28"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="28"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="14"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="28"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="17"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="25" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="25" t="s">
+      <c r="F28" s="18"/>
+      <c r="G28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="27"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="25" t="s">
+      <c r="K28" s="18"/>
+      <c r="L28" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="27"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="22" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="22" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="24"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="6">
         <v>5</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="22" t="s">
+      <c r="K29" s="10"/>
+      <c r="L29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="22" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="22" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="24"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="6">
         <v>5</v>
       </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="22" t="s">
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="22" t="s">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="22" t="s">
+      <c r="F31" s="13"/>
+      <c r="G31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="24"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="6">
         <v>5</v>
       </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="22" t="s">
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="24"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="22" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="22" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="24"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="J32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="22" t="s">
+      <c r="K32" s="10"/>
+      <c r="L32" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="24"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="13"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="22" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="22" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="24"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="22" t="s">
+      <c r="K33" s="10"/>
+      <c r="L33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="20"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="5">
         <v>5</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="22" t="s">
+      <c r="K34" s="15"/>
+      <c r="L34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="13"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -1713,223 +1721,223 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="17"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="22"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="14"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="28"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="12" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="14"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="28"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="14"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="28"/>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="12" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="14"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="28"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="14"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="28"/>
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="14"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="28"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="14"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="28"/>
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19" t="s">
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19" t="s">
+      <c r="F47" s="15"/>
+      <c r="G47" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="18"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="25" t="s">
+      <c r="K47" s="15"/>
+      <c r="L47" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="27"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
@@ -1937,55 +1945,55 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20" t="s">
+      <c r="F48" s="14"/>
+      <c r="G48" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="20"/>
+      <c r="H48" s="14"/>
       <c r="I48" s="5">
         <v>5</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="18"/>
-      <c r="L48" s="22" t="s">
+      <c r="K48" s="15"/>
+      <c r="L48" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="24"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="13"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20" t="s">
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="20"/>
+      <c r="H49" s="14"/>
       <c r="I49" s="5">
         <v>5</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="22" t="s">
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="24"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="13"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
@@ -1993,26 +2001,26 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20" t="s">
+      <c r="F50" s="14"/>
+      <c r="G50" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="20"/>
+      <c r="H50" s="14"/>
       <c r="I50" s="5">
         <v>5</v>
       </c>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="22" t="s">
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="24"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="13"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
@@ -2020,26 +2028,26 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20" t="s">
+      <c r="F51" s="14"/>
+      <c r="G51" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="20"/>
+      <c r="H51" s="14"/>
       <c r="I51" s="5">
         <v>5</v>
       </c>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="22" t="s">
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="24"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="13"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
@@ -2047,26 +2055,26 @@
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20" t="s">
+      <c r="F52" s="14"/>
+      <c r="G52" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="20"/>
+      <c r="H52" s="14"/>
       <c r="I52" s="5">
         <v>5</v>
       </c>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="22" t="s">
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="24"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="13"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
@@ -2074,80 +2082,80 @@
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20" t="s">
+      <c r="F53" s="14"/>
+      <c r="G53" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="20"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="5">
         <v>5</v>
       </c>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="22" t="s">
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="24"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="13"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20" t="s">
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20" t="s">
+      <c r="F54" s="14"/>
+      <c r="G54" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="20"/>
+      <c r="H54" s="14"/>
       <c r="I54" s="5">
         <v>5</v>
       </c>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="22" t="s">
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="24"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="13"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20" t="s">
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="20"/>
+      <c r="H55" s="14"/>
       <c r="I55" s="5">
         <v>5</v>
       </c>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="22" t="s">
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="24"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="13"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
@@ -2155,109 +2163,109 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20" t="s">
+      <c r="F56" s="14"/>
+      <c r="G56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="20"/>
+      <c r="H56" s="14"/>
       <c r="I56" s="5">
         <v>5</v>
       </c>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="22" t="s">
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="24"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="13"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20" t="s">
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20" t="s">
+      <c r="F57" s="14"/>
+      <c r="G57" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="20"/>
+      <c r="H57" s="14"/>
       <c r="I57" s="5">
         <v>5</v>
       </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="22" t="s">
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="24"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="13"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20" t="s">
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20" t="s">
+      <c r="F58" s="14"/>
+      <c r="G58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="20"/>
+      <c r="H58" s="14"/>
       <c r="I58" s="5">
         <v>5</v>
       </c>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="22" t="s">
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="24"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="13"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20" t="s">
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20" t="s">
+      <c r="F59" s="14"/>
+      <c r="G59" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="20"/>
+      <c r="H59" s="14"/>
       <c r="I59" s="5">
         <v>5</v>
       </c>
-      <c r="J59" s="18" t="s">
+      <c r="J59" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K59" s="18"/>
-      <c r="L59" s="22" t="s">
+      <c r="K59" s="15"/>
+      <c r="L59" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="24"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="13"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
@@ -2308,219 +2316,219 @@
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="17"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="22"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="12" t="s">
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="14"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="28"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="12" t="s">
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="14"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="28"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12" t="s">
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="14"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="28"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="12" t="s">
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="14"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="28"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12" t="s">
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="14"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="28"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="12" t="s">
+      <c r="C69" s="24"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="14"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="28"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="14"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="28"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19" t="s">
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="19" t="s">
+      <c r="F72" s="15"/>
+      <c r="G72" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="18"/>
+      <c r="H72" s="15"/>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="19" t="s">
+      <c r="J72" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K72" s="18"/>
-      <c r="L72" s="19" t="s">
+      <c r="K72" s="15"/>
+      <c r="L72" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
@@ -2528,57 +2536,57 @@
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20" t="s">
+      <c r="F73" s="14"/>
+      <c r="G73" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="20"/>
+      <c r="H73" s="14"/>
       <c r="I73" s="5">
         <v>5</v>
       </c>
-      <c r="J73" s="18" t="s">
+      <c r="J73" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K73" s="18"/>
-      <c r="L73" s="20" t="s">
+      <c r="K73" s="15"/>
+      <c r="L73" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20" t="s">
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20" t="s">
+      <c r="F74" s="14"/>
+      <c r="G74" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H74" s="20"/>
+      <c r="H74" s="14"/>
       <c r="I74" s="5">
         <v>30</v>
       </c>
-      <c r="J74" s="18" t="s">
+      <c r="J74" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K74" s="18"/>
-      <c r="L74" s="22" t="s">
+      <c r="K74" s="15"/>
+      <c r="L74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="24"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="13"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
@@ -2586,144 +2594,144 @@
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20" t="s">
+      <c r="F75" s="14"/>
+      <c r="G75" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="20"/>
+      <c r="H75" s="14"/>
       <c r="I75" s="5">
         <v>1</v>
       </c>
-      <c r="J75" s="18" t="s">
+      <c r="J75" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="K75" s="18"/>
-      <c r="L75" s="22" t="s">
+      <c r="K75" s="15"/>
+      <c r="L75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="24"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="13"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="20" t="s">
+      <c r="C76" s="12"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20" t="s">
+      <c r="F76" s="14"/>
+      <c r="G76" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="20"/>
+      <c r="H76" s="14"/>
       <c r="I76" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J76" s="18" t="s">
+      <c r="J76" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K76" s="18"/>
-      <c r="L76" s="22" t="s">
+      <c r="K76" s="15"/>
+      <c r="L76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="24"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="13"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="20" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20" t="s">
+      <c r="F77" s="14"/>
+      <c r="G77" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H77" s="20"/>
+      <c r="H77" s="14"/>
       <c r="I77" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J77" s="18" t="s">
+      <c r="J77" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K77" s="18"/>
-      <c r="L77" s="22" t="s">
+      <c r="K77" s="15"/>
+      <c r="L77" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="24"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="13"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="20" t="s">
+      <c r="C78" s="12"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20" t="s">
+      <c r="F78" s="14"/>
+      <c r="G78" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H78" s="20"/>
+      <c r="H78" s="14"/>
       <c r="I78" s="5">
         <v>30</v>
       </c>
-      <c r="J78" s="18" t="s">
+      <c r="J78" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K78" s="18"/>
-      <c r="L78" s="22" t="s">
+      <c r="K78" s="15"/>
+      <c r="L78" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="24"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="13"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20" t="s">
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20" t="s">
+      <c r="F79" s="14"/>
+      <c r="G79" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H79" s="20"/>
+      <c r="H79" s="14"/>
       <c r="I79" s="5">
         <v>30</v>
       </c>
-      <c r="J79" s="18" t="s">
+      <c r="J79" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K79" s="18"/>
-      <c r="L79" s="22" t="s">
+      <c r="K79" s="15"/>
+      <c r="L79" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="24"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="13"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
@@ -2774,219 +2782,219 @@
       <c r="O82" s="2"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="17"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="22"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12" t="s">
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="14"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="28"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="12" t="s">
+      <c r="C85" s="27"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="14"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="28"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="12" t="s">
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="14"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="28"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="12" t="s">
+      <c r="C87" s="27"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="14"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="28"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="12" t="s">
+      <c r="C88" s="24"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="14"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="28"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="12" t="s">
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="14"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="28"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="14"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="28"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19" t="s">
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F92" s="18"/>
-      <c r="G92" s="19" t="s">
+      <c r="F92" s="15"/>
+      <c r="G92" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H92" s="18"/>
+      <c r="H92" s="15"/>
       <c r="I92" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J92" s="19" t="s">
+      <c r="J92" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K92" s="18"/>
-      <c r="L92" s="19" t="s">
+      <c r="K92" s="15"/>
+      <c r="L92" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
@@ -2994,144 +3002,144 @@
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20" t="s">
+      <c r="F93" s="14"/>
+      <c r="G93" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H93" s="20"/>
+      <c r="H93" s="14"/>
       <c r="I93" s="5">
         <v>5</v>
       </c>
-      <c r="J93" s="18" t="s">
+      <c r="J93" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K93" s="18"/>
-      <c r="L93" s="20" t="s">
+      <c r="K93" s="15"/>
+      <c r="L93" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20" t="s">
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20" t="s">
+      <c r="F94" s="14"/>
+      <c r="G94" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H94" s="20"/>
+      <c r="H94" s="14"/>
       <c r="I94" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J94" s="18" t="s">
+      <c r="J94" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K94" s="18"/>
-      <c r="L94" s="20" t="s">
+      <c r="K94" s="15"/>
+      <c r="L94" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="20" t="s">
+      <c r="C95" s="12"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20" t="s">
+      <c r="F95" s="14"/>
+      <c r="G95" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H95" s="20"/>
+      <c r="H95" s="14"/>
       <c r="I95" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J95" s="18" t="s">
+      <c r="J95" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K95" s="18"/>
-      <c r="L95" s="20" t="s">
+      <c r="K95" s="15"/>
+      <c r="L95" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="M95" s="20"/>
-      <c r="N95" s="20"/>
-      <c r="O95" s="20"/>
-      <c r="P95" s="20"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20" t="s">
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20" t="s">
+      <c r="F96" s="14"/>
+      <c r="G96" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H96" s="20"/>
+      <c r="H96" s="14"/>
       <c r="I96" s="5">
         <v>5</v>
       </c>
-      <c r="J96" s="18" t="s">
+      <c r="J96" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K96" s="18"/>
-      <c r="L96" s="20" t="s">
+      <c r="K96" s="15"/>
+      <c r="L96" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="20"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20" t="s">
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20" t="s">
+      <c r="F97" s="14"/>
+      <c r="G97" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H97" s="20"/>
+      <c r="H97" s="14"/>
       <c r="I97" s="5">
         <v>5</v>
       </c>
-      <c r="J97" s="18" t="s">
+      <c r="J97" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K97" s="18"/>
-      <c r="L97" s="20" t="s">
+      <c r="K97" s="15"/>
+      <c r="L97" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="20"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
@@ -3182,335 +3190,335 @@
       <c r="O100" s="2"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="17"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="22"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="12" t="s">
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="14"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="28"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="12" t="s">
+      <c r="C103" s="27"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="14"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="27"/>
+      <c r="P103" s="28"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="12" t="s">
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="14"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="28"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="12" t="s">
+      <c r="C105" s="27"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="14"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="27"/>
+      <c r="M105" s="27"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="28"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="12" t="s">
+      <c r="C106" s="24"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="14"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="28"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="12" t="s">
+      <c r="C107" s="24"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="14"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="28"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="14"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="28"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
-      <c r="M109" s="21"/>
-      <c r="N109" s="21"/>
-      <c r="O109" s="21"/>
-      <c r="P109" s="21"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
-      <c r="B110" s="19" t="s">
+      <c r="B110" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19" t="s">
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F110" s="18"/>
-      <c r="G110" s="19" t="s">
+      <c r="F110" s="15"/>
+      <c r="G110" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H110" s="18"/>
+      <c r="H110" s="15"/>
       <c r="I110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J110" s="19" t="s">
+      <c r="J110" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K110" s="18"/>
-      <c r="L110" s="19" t="s">
+      <c r="K110" s="15"/>
+      <c r="L110" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="P110" s="19"/>
+      <c r="M110" s="16"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="16"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20" t="s">
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20" t="s">
+      <c r="F111" s="14"/>
+      <c r="G111" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="20"/>
+      <c r="H111" s="14"/>
       <c r="I111" s="5">
         <v>5</v>
       </c>
-      <c r="J111" s="18" t="s">
+      <c r="J111" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K111" s="18"/>
-      <c r="L111" s="20" t="s">
+      <c r="K111" s="15"/>
+      <c r="L111" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="M111" s="20"/>
-      <c r="N111" s="20"/>
-      <c r="O111" s="20"/>
-      <c r="P111" s="20"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="20" t="s">
+      <c r="B112" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20" t="s">
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20" t="s">
+      <c r="F112" s="14"/>
+      <c r="G112" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H112" s="20"/>
+      <c r="H112" s="14"/>
       <c r="I112" s="5">
         <v>30</v>
       </c>
-      <c r="J112" s="18" t="s">
+      <c r="J112" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K112" s="18"/>
-      <c r="L112" s="20" t="s">
+      <c r="K112" s="15"/>
+      <c r="L112" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M112" s="20"/>
-      <c r="N112" s="20"/>
-      <c r="O112" s="20"/>
-      <c r="P112" s="20"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B113" s="20" t="s">
+      <c r="B113" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20" t="s">
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20" t="s">
+      <c r="F113" s="14"/>
+      <c r="G113" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H113" s="20"/>
+      <c r="H113" s="14"/>
       <c r="I113" s="5">
         <v>20</v>
       </c>
-      <c r="J113" s="18" t="s">
+      <c r="J113" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K113" s="18"/>
-      <c r="L113" s="20" t="s">
+      <c r="K113" s="15"/>
+      <c r="L113" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="M113" s="20"/>
-      <c r="N113" s="20"/>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
+      <c r="M113" s="14"/>
+      <c r="N113" s="14"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20" t="s">
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20" t="s">
+      <c r="F114" s="14"/>
+      <c r="G114" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H114" s="20"/>
+      <c r="H114" s="14"/>
       <c r="I114" s="5">
         <v>255</v>
       </c>
-      <c r="J114" s="18" t="s">
+      <c r="J114" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K114" s="18"/>
-      <c r="L114" s="20" t="s">
+      <c r="K114" s="15"/>
+      <c r="L114" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="M114" s="20"/>
-      <c r="N114" s="20"/>
-      <c r="O114" s="20"/>
-      <c r="P114" s="20"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
@@ -3533,31 +3541,252 @@
     </row>
   </sheetData>
   <mergeCells count="295">
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="E89:P89"/>
+    <mergeCell ref="B90:P90"/>
+    <mergeCell ref="B101:P101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="E102:P102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:P103"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:P93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:P94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:P95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:P84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:P85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:P86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="E87:P87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="E88:P88"/>
+    <mergeCell ref="E41:P41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:P42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:P44"/>
+    <mergeCell ref="B45:P45"/>
+    <mergeCell ref="B83:P83"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B11:P11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:P25"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:P39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:P40"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="E5:P5"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="E9:P9"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B46:P46"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="L59:P59"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="B71:P71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="L74:P74"/>
+    <mergeCell ref="L75:P75"/>
+    <mergeCell ref="L76:P76"/>
+    <mergeCell ref="L77:P77"/>
+    <mergeCell ref="L78:P78"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:P92"/>
+    <mergeCell ref="B91:P91"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L79:P79"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="L50:P50"/>
+    <mergeCell ref="L51:P51"/>
+    <mergeCell ref="L52:P52"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="L73:P73"/>
+    <mergeCell ref="B63:P63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:P64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:P65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:P66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:P67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:P68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:P69"/>
+    <mergeCell ref="B70:P70"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:P96"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B109:P109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:P110"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:P97"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="E104:P104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="E105:P105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="E106:P106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="E107:P107"/>
+    <mergeCell ref="B108:P108"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:P111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:P112"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:P114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:P113"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="J12:K12"/>
@@ -3582,252 +3811,31 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="L15:P15"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:P114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:P113"/>
-    <mergeCell ref="B108:P108"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:P111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:P112"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:P96"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B109:P109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:P110"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:P97"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="E104:P104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="E105:P105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="E106:P106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="E107:P107"/>
-    <mergeCell ref="L79:P79"/>
-    <mergeCell ref="L49:P49"/>
-    <mergeCell ref="L50:P50"/>
-    <mergeCell ref="L51:P51"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="L55:P55"/>
-    <mergeCell ref="L56:P56"/>
-    <mergeCell ref="L73:P73"/>
-    <mergeCell ref="B63:P63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:P64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:P65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:P66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:P67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:P68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:P69"/>
-    <mergeCell ref="B70:P70"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="L74:P74"/>
-    <mergeCell ref="L75:P75"/>
-    <mergeCell ref="L76:P76"/>
-    <mergeCell ref="L77:P77"/>
-    <mergeCell ref="L78:P78"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:P92"/>
-    <mergeCell ref="B91:P91"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="B71:P71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:P72"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B46:P46"/>
-    <mergeCell ref="L57:P57"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="L59:P59"/>
-    <mergeCell ref="L48:P48"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="E5:P5"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="E9:P9"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B11:P11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E24:P24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:P25"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="B38:P38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:P39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:P40"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:P41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:P42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:P44"/>
-    <mergeCell ref="B45:P45"/>
-    <mergeCell ref="B83:P83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E84:P84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:P85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:P86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="E87:P87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="E88:P88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="E89:P89"/>
-    <mergeCell ref="B90:P90"/>
-    <mergeCell ref="B101:P101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="E102:P102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="E103:P103"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:P93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:P94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:P95"/>
-    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:P32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
